--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/020_DataVisualization.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/020_DataVisualization.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DataVisualization" sheetId="1" r:id="R3806a07db3c34f11"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DataVisualization" sheetId="1" r:id="R37e0fef5bbc44b24"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/020_DataVisualization.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/020_DataVisualization.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DataVisualization" sheetId="1" r:id="R37e0fef5bbc44b24"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DataVisualization" sheetId="1" r:id="Rb12365dd51cd422c"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/020_DataVisualization.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/020_DataVisualization.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DataVisualization" sheetId="1" r:id="Rb12365dd51cd422c"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DataVisualization" sheetId="1" r:id="R349a7775f17847b1"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/020_DataVisualization.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/020_DataVisualization.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DataVisualization" sheetId="1" r:id="R349a7775f17847b1"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DataVisualization" sheetId="1" r:id="R821e61f407c5418c"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/020_DataVisualization.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/020_DataVisualization.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DataVisualization" sheetId="1" r:id="R821e61f407c5418c"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DataVisualization" sheetId="1" r:id="Ra2fa2ec018f24e54"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/020_DataVisualization.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/020_DataVisualization.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DataVisualization" sheetId="1" r:id="Ra2fa2ec018f24e54"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DataVisualization" sheetId="1" r:id="R435b42b846574cbd"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/020_DataVisualization.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/020_DataVisualization.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DataVisualization" sheetId="1" r:id="R435b42b846574cbd"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DataVisualization" sheetId="1" r:id="R1e3869ea7d74463f"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/020_DataVisualization.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/020_DataVisualization.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DataVisualization" sheetId="1" r:id="R1e3869ea7d74463f"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DataVisualization" sheetId="1" r:id="Rb6fd7da48ba64b00"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/020_DataVisualization.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/020_DataVisualization.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DataVisualization" sheetId="1" r:id="Rb6fd7da48ba64b00"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DataVisualization" sheetId="1" r:id="R56006e04789748b5"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/020_DataVisualization.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/020_DataVisualization.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DataVisualization" sheetId="1" r:id="R56006e04789748b5"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DataVisualization" sheetId="1" r:id="Rc7ac3fcbdb184600"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/020_DataVisualization.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/020_DataVisualization.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DataVisualization" sheetId="1" r:id="Rc7ac3fcbdb184600"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DataVisualization" sheetId="1" r:id="Rfa7e7a6a24fa4a08"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -30,42 +30,42 @@
       <x:b/>
       <x:sz val="16"/>
       <x:color rgb="FF000000"/>
-      <x:name val="Aptos Narrow"/>
+      <x:name val="Arial"/>
     </x:font>
     <x:font>
       <x:b/>
       <x:sz val="12"/>
       <x:color rgb="FFFFFFFF"/>
-      <x:name val="Aptos Narrow"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Aptos Narrow"/>
+      <x:name val="Arial"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Arial"/>
     </x:font>
     <x:font>
       <x:b/>
       <x:sz val="12"/>
       <x:color rgb="FF155724"/>
-      <x:name val="Aptos Narrow"/>
+      <x:name val="Arial"/>
     </x:font>
     <x:font>
       <x:b/>
       <x:sz val="12"/>
       <x:color rgb="FF856404"/>
-      <x:name val="Aptos Narrow"/>
-    </x:font>
-    <x:font>
-      <x:b/>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Aptos Narrow"/>
-    </x:font>
-    <x:font>
-      <x:b/>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Aptos Narrow"/>
+      <x:name val="Arial"/>
+    </x:font>
+    <x:font>
+      <x:b/>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Arial"/>
+    </x:font>
+    <x:font>
+      <x:b/>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Arial"/>
     </x:font>
   </x:fonts>
   <x:fills count="6">

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/020_DataVisualization.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/020_DataVisualization.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DataVisualization" sheetId="1" r:id="Rfa7e7a6a24fa4a08"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DataVisualization" sheetId="1" r:id="R91b25f895009430d"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -30,42 +30,42 @@
       <x:b/>
       <x:sz val="16"/>
       <x:color rgb="FF000000"/>
-      <x:name val="Arial"/>
+      <x:name val="Aptos Narrow"/>
     </x:font>
     <x:font>
       <x:b/>
       <x:sz val="12"/>
       <x:color rgb="FFFFFFFF"/>
-      <x:name val="Arial"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Arial"/>
+      <x:name val="Aptos Narrow"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Aptos Narrow"/>
     </x:font>
     <x:font>
       <x:b/>
       <x:sz val="12"/>
       <x:color rgb="FF155724"/>
-      <x:name val="Arial"/>
+      <x:name val="Aptos Narrow"/>
     </x:font>
     <x:font>
       <x:b/>
       <x:sz val="12"/>
       <x:color rgb="FF856404"/>
-      <x:name val="Arial"/>
-    </x:font>
-    <x:font>
-      <x:b/>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Arial"/>
-    </x:font>
-    <x:font>
-      <x:b/>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Arial"/>
+      <x:name val="Aptos Narrow"/>
+    </x:font>
+    <x:font>
+      <x:b/>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Aptos Narrow"/>
+    </x:font>
+    <x:font>
+      <x:b/>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Aptos Narrow"/>
     </x:font>
   </x:fonts>
   <x:fills count="6">

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/020_DataVisualization.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/020_DataVisualization.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DataVisualization" sheetId="1" r:id="R91b25f895009430d"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DataVisualization" sheetId="1" r:id="R43a0dbebc2bd404b"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
